--- a/examples/pysero_analysis_config.xlsx
+++ b/examples/pysero_analysis_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/ELISAarrayReader/images_scienion/OJ_plate3_9_7_8_4_10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF029C5D-67B7-3044-877D-D71EF04B7A91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE4DF69-561D-704A-95D8-DACD014EADFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{2C8FFFCF-2234-4E43-9609-0711918053F4}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18980" xr2:uid="{2C8FFFCF-2234-4E43-9609-0711918053F4}"/>
   </bookViews>
   <sheets>
     <sheet name="pysero output dirs" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
   <si>
     <t>directory</t>
   </si>
@@ -259,9 +259,6 @@
     <t>Pool, mab, Blank, CR3022</t>
   </si>
   <si>
-    <t>Pool, mab, CR3022</t>
-  </si>
-  <si>
     <t>serum type</t>
   </si>
   <si>
@@ -277,9 +274,6 @@
     <t xml:space="preserve">reference antigen used to normalize the OD per plate. Normalizing OD removes the systematic differences in ODs across plates  </t>
   </si>
   <si>
-    <t>property to split the data by and plot separately. See pysero spot fitting metadata for avaialable properties.</t>
-  </si>
-  <si>
     <t>serum ID to included/exclude</t>
   </si>
   <si>
@@ -314,6 +308,12 @@
   </si>
   <si>
     <t># well action: If 'keep' or 'drop', the wells specified in 'well ID' column will be kept or dropped. All wells will be kept if # # NA or left empty.</t>
+  </si>
+  <si>
+    <t>Pool</t>
+  </si>
+  <si>
+    <t>property to split the data by and plot separately. See pysero spot fitting metadata (\examples\pysero_output_data_metadata.xlsx) for available properties.</t>
   </si>
 </sst>
 </file>
@@ -680,7 +680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BF5E64-59EB-464E-9E50-4B72F7790285}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView zoomScale="222" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="222" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -691,27 +691,27 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1059,7 +1059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A27F874-B8FE-F345-A87E-155F2684A4B8}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="318" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="223" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1070,27 +1070,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1200,8 +1200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925B0CAC-1178-5549-87EC-EFADF9D03327}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="106" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1219,7 +1219,7 @@
         <v>65</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1229,8 +1229,8 @@
       <c r="B2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>77</v>
+      <c r="C2" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1240,19 +1240,16 @@
       <c r="B3" t="s">
         <v>59</v>
       </c>
-      <c r="C3" t="s">
-        <v>78</v>
+      <c r="C3" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>62</v>
       </c>
-      <c r="B4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" t="s">
-        <v>79</v>
+      <c r="C4" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1270,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{639C07EB-5F92-C849-918E-826589983D4A}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScale="262" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C4"/>
+    <sheetView zoomScale="192" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1290,7 +1287,7 @@
         <v>65</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1300,8 +1297,8 @@
       <c r="B2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C2" t="s">
-        <v>80</v>
+      <c r="C2" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1311,8 +1308,8 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>81</v>
+      <c r="C3" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1322,19 +1319,16 @@
       <c r="B4" t="s">
         <v>63</v>
       </c>
-      <c r="C4" t="s">
-        <v>82</v>
+      <c r="C4" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>70</v>
       </c>
-      <c r="B5">
-        <v>95</v>
-      </c>
-      <c r="C5" t="s">
-        <v>83</v>
+      <c r="C5" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1344,8 +1338,8 @@
       <c r="B6">
         <v>0.95</v>
       </c>
-      <c r="C6" t="s">
-        <v>84</v>
+      <c r="C6" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1358,7 +1352,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="172" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1376,7 +1370,7 @@
         <v>65</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1387,7 +1381,7 @@
         <v>72</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1398,7 +1392,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1406,21 +1400,21 @@
         <v>69</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1432,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C52FC3E-3CCB-654B-B043-7A418B5EADC2}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1451,7 +1445,7 @@
         <v>65</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1459,10 +1453,10 @@
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1473,7 +1467,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1484,18 +1478,18 @@
         <v>67</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/examples/pysero_analysis_config.xlsx
+++ b/examples/pysero_analysis_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/ELISAarrayReader/images_scienion/OJ_plate3_9_7_8_4_10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE4DF69-561D-704A-95D8-DACD014EADFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0926794D-14E1-1244-A0FE-41B4F9AF1549}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18980" xr2:uid="{2C8FFFCF-2234-4E43-9609-0711918053F4}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18980" activeTab="5" xr2:uid="{2C8FFFCF-2234-4E43-9609-0711918053F4}"/>
   </bookViews>
   <sheets>
     <sheet name="pysero output dirs" sheetId="1" r:id="rId1"/>
@@ -310,10 +310,10 @@
     <t># well action: If 'keep' or 'drop', the wells specified in 'well ID' column will be kept or dropped. All wells will be kept if # # NA or left empty.</t>
   </si>
   <si>
-    <t>Pool</t>
-  </si>
-  <si>
     <t>property to split the data by and plot separately. See pysero spot fitting metadata (\examples\pysero_output_data_metadata.xlsx) for available properties.</t>
+  </si>
+  <si>
+    <t>Pool,mab, CR3022</t>
   </si>
 </sst>
 </file>
@@ -680,7 +680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BF5E64-59EB-464E-9E50-4B72F7790285}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="222" workbookViewId="0">
+    <sheetView zoomScale="144" zoomScaleNormal="222" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -1249,7 +1249,7 @@
         <v>62</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1352,7 +1352,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="172" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1426,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C52FC3E-3CCB-654B-B043-7A418B5EADC2}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1453,7 +1453,7 @@
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>78</v>
@@ -1486,7 +1486,7 @@
         <v>74</v>
       </c>
       <c r="B5" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>83</v>
